--- a/dtj/dtj-report/tml/ПО-6.xlsx
+++ b/dtj/dtj-report/tml/ПО-6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jc-2\backend-jc\dtj\dtj-report\tml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jc-projects\backend-jc\dtj\dtj-report\tml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -607,14 +607,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="26.875" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.125" style="3"/>
+    <col min="2" max="10" width="10.625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/dtj/dtj-report/tml/ПО-6.xlsx
+++ b/dtj/dtj-report/tml/ПО-6.xlsx
@@ -612,7 +612,7 @@
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="26.875" style="3" customWidth="1"/>
-    <col min="2" max="10" width="10.625" style="3" customWidth="1"/>
+    <col min="2" max="10" width="9.625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>

--- a/dtj/dtj-report/tml/ПО-6.xlsx
+++ b/dtj/dtj-report/tml/ПО-6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jc-projects\backend-jc\dtj\dtj-report\tml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jc-2\backend-jc\dtj\dtj-report\tml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -237,9 +237,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -253,22 +250,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,9 +611,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="3" customWidth="1"/>
-    <col min="2" max="10" width="9.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="28" style="2" customWidth="1"/>
+    <col min="2" max="10" width="9.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -627,129 +627,129 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="13">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="13">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="13">
         <v>4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="13">
         <v>5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="13">
         <v>6</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="13">
         <v>7</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="13">
         <v>8</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="13">
         <v>9</v>
       </c>
     </row>

--- a/dtj/dtj-report/tml/ПО-6.xlsx
+++ b/dtj/dtj-report/tml/ПО-6.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve"> Статистическая отчетность</t>
   </si>
@@ -70,23 +70,20 @@
     <t>форма  ПО-6</t>
   </si>
   <si>
-    <t xml:space="preserve">О негодных шпалах, лежащих в пути по </t>
-  </si>
-  <si>
-    <t>Дистанции пути</t>
-  </si>
-  <si>
-    <t>по состоянию на </t>
-  </si>
-  <si>
-    <t>01.01.2025 год.</t>
+    <t>Клиент</t>
+  </si>
+  <si>
+    <t>Участок</t>
+  </si>
+  <si>
+    <t>О негодных шпалах, лежащих в пути</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -95,31 +92,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -232,43 +222,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,7 +596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" style="2" customWidth="1"/>
     <col min="2" max="10" width="9.625" style="2" customWidth="1"/>
@@ -617,37 +604,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="J1" s="1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="J2" s="1" t="s">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-    </row>
+    <row r="3" spans="1:10" ht="7.5" customHeight="1"/>
     <row r="4" spans="1:10">
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
+      <c r="E6" s="5">
+        <v>45658</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -657,99 +642,99 @@
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="6">
         <v>6</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="6">
         <v>7</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="6">
         <v>8</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="6">
         <v>9</v>
       </c>
     </row>
